--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195087.3189114577</v>
+        <v>190905.6083393196</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6710378.753666299</v>
+        <v>6710378.753666298</v>
       </c>
     </row>
     <row r="9">
@@ -1135,7 +1135,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>98.20570325290444</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796767</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>109.3473125889895</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>104.8891084057996</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="Y9" t="n">
-        <v>119.083910542461</v>
+        <v>104.8891084058004</v>
       </c>
     </row>
     <row r="10">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="C10" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>91.3274798296364</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>82.6621924374279</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.561628576164</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.2269159683717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.25244975144031</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>364.5041322773527</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>69.05769241423013</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>61.67060262641341</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>41.2035104382903</v>
       </c>
       <c r="G14" t="n">
-        <v>13.13578160607809</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>223.2988236314038</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>186.3453271989929</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>359.2048966415934</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1852,10 +1852,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>169.001245937393</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>122.496421583812</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>185.0832217507329</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>373.625162559698</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2095,10 +2095,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>149.6157531058523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>121.2555391148506</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -2292,10 +2292,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>119.5061183154083</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>180.000263846277</v>
       </c>
       <c r="H23" t="n">
-        <v>186.8835669644645</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>53.19117033386323</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2538,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>11.45461388085721</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2557,13 +2557,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>43.36257896338333</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>371.5129010675739</v>
       </c>
     </row>
     <row r="27">
@@ -2724,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>168.4424908234479</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
@@ -2775,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>228.630506425501</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>321.9370827829813</v>
       </c>
       <c r="H29" t="n">
-        <v>235.8847269686972</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,10 +2955,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2967,10 +2967,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>54.3166146207491</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>170.3034090720304</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3040,13 +3040,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>82.99383772901977</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.008008304820296</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>115.9720978279073</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3249,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>188.81503203837</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12.50009845362048</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3280,10 +3280,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>276.2907591653837</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>54.31661462074911</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>261.6328495117799</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3505,19 +3505,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>365.3226464185696</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>217.8842749143376</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>106.4438755113824</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>75.6657081938116</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>181.7641760559657</v>
       </c>
       <c r="X41" t="n">
-        <v>264.347684581264</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,22 +3900,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>124.9643551080473</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>65.0373852481188</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>250.914931001492</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>103.4320834536219</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4155,7 +4155,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>170.3034090720313</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>314.4419183593943</v>
+        <v>129.05952875641</v>
       </c>
       <c r="C8" t="n">
-        <v>215.2442383059554</v>
+        <v>94.95745998023735</v>
       </c>
       <c r="D8" t="n">
-        <v>183.374857520804</v>
+        <v>63.08807919508592</v>
       </c>
       <c r="E8" t="n">
-        <v>153.6405167195032</v>
+        <v>33.35373839378516</v>
       </c>
       <c r="F8" t="n">
-        <v>129.813491169115</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="G8" t="n">
-        <v>129.813491169115</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="I8" t="n">
-        <v>23.5795474158557</v>
+        <v>23.57954741585593</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558032</v>
+        <v>55.4163230655808</v>
       </c>
       <c r="K8" t="n">
-        <v>103.131396931807</v>
+        <v>103.1313969318079</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183095</v>
+        <v>162.3261653183109</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590932</v>
+        <v>228.191750759095</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326581</v>
+        <v>295.1231102326605</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336424</v>
+        <v>358.3244950336453</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455671</v>
+        <v>412.2654147455704</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245014</v>
+        <v>452.7727990245049</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698439</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698439</v>
+        <v>401.4050834648298</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698439</v>
+        <v>290.9532525668606</v>
       </c>
       <c r="U8" t="n">
-        <v>476.3356421698439</v>
+        <v>290.9532525668606</v>
       </c>
       <c r="V8" t="n">
-        <v>476.3356421698439</v>
+        <v>290.9532525668606</v>
       </c>
       <c r="W8" t="n">
-        <v>356.0488638441257</v>
+        <v>170.6664742411415</v>
       </c>
       <c r="X8" t="n">
-        <v>340.9468044638405</v>
+        <v>155.5644148608562</v>
       </c>
       <c r="Y8" t="n">
-        <v>336.701084803898</v>
+        <v>151.3186952009137</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>115.4753071926894</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="C9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="D9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="E9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="I9" t="n">
-        <v>42.50045791160444</v>
+        <v>16.43678475114696</v>
       </c>
       <c r="J9" t="n">
-        <v>61.4622233848327</v>
+        <v>67.70899752367998</v>
       </c>
       <c r="K9" t="n">
-        <v>93.87090076414863</v>
+        <v>100.1176749029962</v>
       </c>
       <c r="L9" t="n">
-        <v>137.448366979838</v>
+        <v>143.6951411186859</v>
       </c>
       <c r="M9" t="n">
-        <v>234.285743697318</v>
+        <v>194.5479887761022</v>
       </c>
       <c r="N9" t="n">
-        <v>352.1788151343544</v>
+        <v>246.7467599936395</v>
       </c>
       <c r="O9" t="n">
-        <v>399.930492940687</v>
+        <v>294.4984377999726</v>
       </c>
       <c r="P9" t="n">
-        <v>438.2554242425492</v>
+        <v>332.8233691018351</v>
       </c>
       <c r="Q9" t="n">
-        <v>463.8746258735243</v>
+        <v>358.4425707328103</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698439</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="S9" t="n">
-        <v>476.3356421698439</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="T9" t="n">
-        <v>356.0488638441257</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="U9" t="n">
-        <v>356.0488638441257</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="V9" t="n">
-        <v>356.0488638441257</v>
+        <v>356.0488638441285</v>
       </c>
       <c r="W9" t="n">
-        <v>356.0488638441257</v>
+        <v>235.7620855184094</v>
       </c>
       <c r="X9" t="n">
-        <v>356.0488638441257</v>
+        <v>115.4753071926903</v>
       </c>
       <c r="Y9" t="n">
-        <v>235.7620855184076</v>
+        <v>9.526712843396952</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>333.5974335730432</v>
+        <v>222.0634707950114</v>
       </c>
       <c r="C10" t="n">
-        <v>213.310655247325</v>
+        <v>101.7766924692923</v>
       </c>
       <c r="D10" t="n">
-        <v>213.310655247325</v>
+        <v>101.7766924692923</v>
       </c>
       <c r="E10" t="n">
-        <v>213.310655247325</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="F10" t="n">
-        <v>213.310655247325</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="G10" t="n">
-        <v>213.310655247325</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="H10" t="n">
-        <v>93.02387692160688</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="J10" t="n">
-        <v>108.002400301115</v>
+        <v>108.0024003011151</v>
       </c>
       <c r="K10" t="n">
-        <v>225.8954717381513</v>
+        <v>127.5511863760672</v>
       </c>
       <c r="L10" t="n">
-        <v>274.4715096709485</v>
+        <v>152.5669021405246</v>
       </c>
       <c r="M10" t="n">
-        <v>392.3645811079849</v>
+        <v>270.4599735775618</v>
       </c>
       <c r="N10" t="n">
-        <v>418.1129939405095</v>
+        <v>314.3094270837871</v>
       </c>
       <c r="O10" t="n">
-        <v>441.895820692728</v>
+        <v>338.0922538360058</v>
       </c>
       <c r="P10" t="n">
-        <v>462.2461375895323</v>
+        <v>358.4425707328103</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698439</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698439</v>
+        <v>462.6370274464497</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698439</v>
+        <v>462.6370274464497</v>
       </c>
       <c r="T10" t="n">
-        <v>476.3356421698439</v>
+        <v>462.6370274464497</v>
       </c>
       <c r="U10" t="n">
-        <v>476.3356421698439</v>
+        <v>462.6370274464497</v>
       </c>
       <c r="V10" t="n">
-        <v>476.3356421698439</v>
+        <v>342.3502491207306</v>
       </c>
       <c r="W10" t="n">
-        <v>476.3356421698439</v>
+        <v>342.3502491207306</v>
       </c>
       <c r="X10" t="n">
-        <v>476.3356421698439</v>
+        <v>342.3502491207306</v>
       </c>
       <c r="Y10" t="n">
-        <v>453.8842118987614</v>
+        <v>342.3502491207306</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>755.070575821621</v>
+        <v>1688.947492710956</v>
       </c>
       <c r="C11" t="n">
-        <v>316.9281030050443</v>
+        <v>1250.805019894379</v>
       </c>
       <c r="D11" t="n">
-        <v>316.9281030050443</v>
+        <v>814.8952350688237</v>
       </c>
       <c r="E11" t="n">
-        <v>316.9281030050443</v>
+        <v>814.8952350688237</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131645</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131645</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>2108.089956131645</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792597</v>
+        <v>2108.089956131645</v>
       </c>
       <c r="X11" t="n">
-        <v>1173.712709371907</v>
+        <v>1688.947492710956</v>
       </c>
       <c r="Y11" t="n">
-        <v>765.4265856715607</v>
+        <v>1688.947492710956</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043081</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R12" t="n">
         <v>1676.651116233592</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>992.2890823372272</v>
+        <v>750.0418582406321</v>
       </c>
       <c r="C13" t="n">
-        <v>819.7273708204522</v>
+        <v>577.480146723857</v>
       </c>
       <c r="D13" t="n">
-        <v>653.8493780219749</v>
+        <v>411.6021539253798</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>241.844150176117</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>241.844150176117</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>241.844150176117</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>109.5000895554329</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,46 +5205,46 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1272.302332591134</v>
+        <v>1412.355695376304</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527955</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.89643867598</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.856484770968</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.90103895197</v>
       </c>
       <c r="T13" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855377</v>
       </c>
       <c r="U13" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855377</v>
       </c>
       <c r="V13" t="n">
-        <v>1928.945530822402</v>
+        <v>1686.698306725807</v>
       </c>
       <c r="W13" t="n">
-        <v>1656.919126408694</v>
+        <v>1414.671902312099</v>
       </c>
       <c r="X13" t="n">
-        <v>1411.527371742106</v>
+        <v>1169.280147645511</v>
       </c>
       <c r="Y13" t="n">
-        <v>1184.107701056214</v>
+        <v>941.8604769596193</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>488.3424474085127</v>
+        <v>958.5107887296396</v>
       </c>
       <c r="C14" t="n">
-        <v>488.3424474085127</v>
+        <v>958.5107887296396</v>
       </c>
       <c r="D14" t="n">
-        <v>488.3424474085127</v>
+        <v>522.6010039040841</v>
       </c>
       <c r="E14" t="n">
-        <v>488.3424474085127</v>
+        <v>88.82625906237928</v>
       </c>
       <c r="F14" t="n">
-        <v>60.47501781772047</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228021</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447736</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2101.25688596925</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V14" t="n">
-        <v>1738.639935903077</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W14" t="n">
-        <v>1333.78448131411</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="X14" t="n">
-        <v>914.6420178934205</v>
+        <v>1366.796912429986</v>
       </c>
       <c r="Y14" t="n">
-        <v>914.6420178934205</v>
+        <v>958.5107887296396</v>
       </c>
     </row>
     <row r="15">
@@ -5348,10 +5348,10 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
         <v>81.42328772043167</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>528.8193777246577</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="C16" t="n">
-        <v>356.2576662078826</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D16" t="n">
-        <v>356.2576662078826</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E16" t="n">
-        <v>356.2576662078826</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F16" t="n">
-        <v>179.5506121696388</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G16" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5445,10 +5445,10 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180194</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O16" t="n">
         <v>1657.620488527956</v>
@@ -5460,28 +5460,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>2081.940945496479</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774551</v>
+        <v>1856.386578192031</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1584.360173778323</v>
       </c>
       <c r="X16" t="n">
-        <v>948.0576671295366</v>
+        <v>1338.968419111735</v>
       </c>
       <c r="Y16" t="n">
-        <v>720.6379964436449</v>
+        <v>1111.548748425843</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1525.741883262482</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C17" t="n">
-        <v>1087.599410445905</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D17" t="n">
-        <v>651.6896256203495</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E17" t="n">
-        <v>217.9148807786447</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F17" t="n">
         <v>47.20655154895472</v>
@@ -5512,16 +5512,16 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435803</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447736</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="X17" t="n">
-        <v>2360.327577447736</v>
+        <v>1284.092038121989</v>
       </c>
       <c r="Y17" t="n">
-        <v>1952.041453747389</v>
+        <v>1284.092038121989</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668981</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.291841223631</v>
+        <v>926.413848425154</v>
       </c>
       <c r="C19" t="n">
-        <v>919.7301297068562</v>
+        <v>753.852136908379</v>
       </c>
       <c r="D19" t="n">
         <v>753.852136908379</v>
@@ -5673,25 +5673,25 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M19" t="n">
-        <v>1412.355695376305</v>
+        <v>875.5973915434844</v>
       </c>
       <c r="N19" t="n">
-        <v>1539.854607180194</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T19" t="n">
-        <v>2215.901038951971</v>
+        <v>2236.593818272168</v>
       </c>
       <c r="U19" t="n">
-        <v>2215.901038951971</v>
+        <v>1958.207186320911</v>
       </c>
       <c r="V19" t="n">
-        <v>2028.948289708806</v>
+        <v>1671.251678191342</v>
       </c>
       <c r="W19" t="n">
-        <v>1756.921885295098</v>
+        <v>1399.225273777633</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.53013062851</v>
+        <v>1153.833519111046</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.110459942618</v>
+        <v>926.413848425154</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1782.900983623584</v>
+        <v>1955.472122858769</v>
       </c>
       <c r="C20" t="n">
-        <v>1344.758510807007</v>
+        <v>1955.472122858769</v>
       </c>
       <c r="D20" t="n">
-        <v>908.8487259814518</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
@@ -5755,7 +5755,7 @@
         <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L20" t="n">
         <v>805.440802286702</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>1955.472122858769</v>
       </c>
       <c r="X20" t="n">
-        <v>2360.327577447737</v>
+        <v>1955.472122858769</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.200554108492</v>
+        <v>1955.472122858769</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5825,22 +5825,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J21" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>905.7210691049565</v>
+        <v>629.3286074169882</v>
       </c>
       <c r="C22" t="n">
-        <v>733.1593575881815</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="D22" t="n">
-        <v>567.2813647897042</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E22" t="n">
-        <v>397.5233610404414</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F22" t="n">
-        <v>397.5233610404414</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G22" t="n">
-        <v>232.7821806529599</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H22" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092379</v>
+        <v>767.3301446246905</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>897.93453696322</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1467.692251924754</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2215.901038951971</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.514407000714</v>
+        <v>1852.940564031733</v>
       </c>
       <c r="V22" t="n">
-        <v>1650.558898871144</v>
+        <v>1565.985055902163</v>
       </c>
       <c r="W22" t="n">
-        <v>1378.532494457436</v>
+        <v>1293.958651488455</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.140739790848</v>
+        <v>1048.566896821867</v>
       </c>
       <c r="Y22" t="n">
-        <v>905.7210691049565</v>
+        <v>821.1472261359754</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1110.030088953172</v>
+        <v>1530.944687111452</v>
       </c>
       <c r="C23" t="n">
-        <v>671.8876161365956</v>
+        <v>1092.802214294875</v>
       </c>
       <c r="D23" t="n">
-        <v>235.9778313110401</v>
+        <v>656.8924294693197</v>
       </c>
       <c r="E23" t="n">
-        <v>235.9778313110401</v>
+        <v>656.8924294693197</v>
       </c>
       <c r="F23" t="n">
-        <v>235.9778313110401</v>
+        <v>229.0249998785275</v>
       </c>
       <c r="G23" t="n">
-        <v>235.9778313110401</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001349</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867016</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M23" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
         <v>2043.069798152528</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447736</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W23" t="n">
-        <v>1955.472122858769</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X23" t="n">
-        <v>1536.32965943808</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="Y23" t="n">
-        <v>1536.32965943808</v>
+        <v>1957.24425759636</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
         <v>551.5786779960906</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>732.1113136517137</v>
+        <v>562.3533099024509</v>
       </c>
       <c r="C25" t="n">
-        <v>559.5496021349386</v>
+        <v>389.7915983856758</v>
       </c>
       <c r="D25" t="n">
-        <v>393.6716093364612</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E25" t="n">
         <v>223.9136055871985</v>
@@ -6147,25 +6147,25 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>481.9462364092376</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827552</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789086</v>
+        <v>1388.483364472883</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.320157362629</v>
+        <v>1925.918495046426</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951971</v>
+        <v>2306.599122565046</v>
       </c>
       <c r="T25" t="n">
-        <v>1973.653814855378</v>
+        <v>2064.351898468452</v>
       </c>
       <c r="U25" t="n">
-        <v>1695.267182904121</v>
+        <v>1785.965266517195</v>
       </c>
       <c r="V25" t="n">
-        <v>1408.311674774551</v>
+        <v>1499.009758387626</v>
       </c>
       <c r="W25" t="n">
-        <v>1396.74135772318</v>
+        <v>1226.983353973917</v>
       </c>
       <c r="X25" t="n">
-        <v>1151.349603056593</v>
+        <v>981.5915993073297</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.9299323707007</v>
+        <v>754.1719286214379</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>910.9837659653025</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C26" t="n">
-        <v>910.9837659653025</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D26" t="n">
-        <v>475.073981139747</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E26" t="n">
         <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6262,16 +6262,16 @@
         <v>2148.556325916849</v>
       </c>
       <c r="V26" t="n">
-        <v>1785.939375850675</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W26" t="n">
-        <v>1381.083921261709</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X26" t="n">
-        <v>1337.28333645021</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="Y26" t="n">
-        <v>1337.28333645021</v>
+        <v>1773.290769282936</v>
       </c>
     </row>
     <row r="27">
@@ -6284,43 +6284,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P27" t="n">
         <v>1488.088567599445</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.0817647851416</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="C28" t="n">
-        <v>616.0817647851416</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D28" t="n">
-        <v>450.2037719866643</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E28" t="n">
-        <v>280.4457682374015</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F28" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G28" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L28" t="n">
-        <v>744.992999204955</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M28" t="n">
-        <v>1329.17407462327</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N28" t="n">
-        <v>1898.931789584804</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270316</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.711808856608</v>
+        <v>1419.618993390841</v>
       </c>
       <c r="X28" t="n">
-        <v>1035.320054190021</v>
+        <v>1174.227238724254</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.9003835041287</v>
+        <v>946.8075680383618</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1120.886428673515</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="C29" t="n">
-        <v>1120.886428673515</v>
+        <v>1669.947483315069</v>
       </c>
       <c r="D29" t="n">
-        <v>684.9766438479596</v>
+        <v>1234.037698489514</v>
       </c>
       <c r="E29" t="n">
-        <v>684.9766438479596</v>
+        <v>800.2629536478089</v>
       </c>
       <c r="F29" t="n">
-        <v>684.9766438479596</v>
+        <v>372.3955240570166</v>
       </c>
       <c r="G29" t="n">
-        <v>285.4739525274368</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L29" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M29" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
         <v>1775.969506973259</v>
@@ -6487,28 +6487,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W29" t="n">
-        <v>1955.472122858769</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X29" t="n">
-        <v>1955.472122858769</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y29" t="n">
-        <v>1547.185999158423</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M30" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P30" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q30" t="n">
         <v>1614.947661807679</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.0817647851411</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C31" t="n">
-        <v>443.520053268366</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D31" t="n">
-        <v>443.520053268366</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E31" t="n">
-        <v>443.520053268366</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F31" t="n">
-        <v>266.8129992301223</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G31" t="n">
-        <v>102.0718188426407</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>102.0718188426407</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L31" t="n">
-        <v>688.1212571728194</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M31" t="n">
-        <v>1272.302332591134</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N31" t="n">
-        <v>1539.854607180194</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O31" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>2043.877393424667</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>2043.877393424667</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270316</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856608</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.32005419002</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041283</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1782.900983623584</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.758510807007</v>
+        <v>1669.94748331507</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>1234.037698489514</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>800.2629536478094</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895472</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001349</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K32" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867016</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2357.289185220645</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2145.517933689757</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>2145.517933689757</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V32" t="n">
-        <v>1782.900983623584</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W32" t="n">
-        <v>1782.900983623584</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X32" t="n">
-        <v>1782.900983623584</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y32" t="n">
-        <v>1782.900983623584</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="33">
@@ -6758,31 +6758,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
         <v>551.5786779960906</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>795.2066002154656</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="C34" t="n">
-        <v>622.6448886986906</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="D34" t="n">
-        <v>456.7668959002132</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E34" t="n">
-        <v>287.0088921509505</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F34" t="n">
-        <v>110.3018381127067</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G34" t="n">
-        <v>110.3018381127067</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
         <v>192.6919004158277</v>
@@ -6870,40 +6870,40 @@
         <v>1412.355695376305</v>
       </c>
       <c r="N34" t="n">
-        <v>1539.854607180194</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2215.901038951971</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1937.514407000714</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1650.558898871144</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W34" t="n">
-        <v>1459.836644286932</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X34" t="n">
-        <v>1214.444889620345</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y34" t="n">
-        <v>987.0252189344528</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>908.8487259814518</v>
+        <v>1893.561637177626</v>
       </c>
       <c r="C35" t="n">
-        <v>908.8487259814518</v>
+        <v>1893.561637177626</v>
       </c>
       <c r="D35" t="n">
-        <v>908.8487259814518</v>
+        <v>1457.65185235207</v>
       </c>
       <c r="E35" t="n">
-        <v>475.073981139747</v>
+        <v>1023.877107510365</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895472</v>
+        <v>596.0096779195733</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435803</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228011</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
         <v>1775.969506973259</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V35" t="n">
-        <v>1745.473006065472</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W35" t="n">
-        <v>1340.617551476505</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X35" t="n">
-        <v>921.4750880558159</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y35" t="n">
-        <v>921.4750880558159</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="36">
@@ -7010,16 +7010,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
         <v>551.5786779960906</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.0817647851411</v>
+        <v>757.7926570868869</v>
       </c>
       <c r="C37" t="n">
-        <v>443.520053268366</v>
+        <v>585.2309455701119</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6547859746801</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="E37" t="n">
-        <v>388.6547859746801</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F37" t="n">
-        <v>211.9477319364363</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9462364092376</v>
+        <v>767.330144624691</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827552</v>
+        <v>897.9345369632205</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789086</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.320157362629</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399886</v>
+        <v>1709.378209287923</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270316</v>
+        <v>1422.422701158353</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856608</v>
+        <v>1422.422701158353</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.32005419002</v>
+        <v>1177.030946491766</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041283</v>
+        <v>949.6112758058741</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>880.4839877111824</v>
+        <v>854.3617985257027</v>
       </c>
       <c r="C38" t="n">
-        <v>880.4839877111824</v>
+        <v>416.2193257091261</v>
       </c>
       <c r="D38" t="n">
-        <v>880.4839877111824</v>
+        <v>416.2193257091261</v>
       </c>
       <c r="E38" t="n">
-        <v>446.7092428694776</v>
+        <v>416.2193257091261</v>
       </c>
       <c r="F38" t="n">
-        <v>446.7092428694776</v>
+        <v>416.2193257091261</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001349</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867016</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916848</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>1889.485634438362</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V38" t="n">
-        <v>1526.868684372189</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W38" t="n">
-        <v>1526.868684372189</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X38" t="n">
-        <v>1306.78355819609</v>
+        <v>1688.947492710957</v>
       </c>
       <c r="Y38" t="n">
-        <v>1306.78355819609</v>
+        <v>1280.661369010611</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1226.247766280535</v>
+        <v>542.571305066391</v>
       </c>
       <c r="C39" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030333</v>
       </c>
       <c r="D39" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495865</v>
       </c>
       <c r="E39" t="n">
-        <v>930.5806015906844</v>
+        <v>246.9041403765402</v>
       </c>
       <c r="F39" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927018</v>
       </c>
       <c r="G39" t="n">
-        <v>762.8256627965029</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>765.0997489345754</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J39" t="n">
-        <v>858.9930882810424</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L39" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M39" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N39" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T39" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U39" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V39" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280535</v>
       </c>
       <c r="X39" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669334</v>
       </c>
       <c r="Y39" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461541</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>622.6448886986906</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C40" t="n">
-        <v>622.6448886986906</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D40" t="n">
-        <v>456.7668959002132</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E40" t="n">
-        <v>287.0088921509505</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F40" t="n">
-        <v>110.3018381127067</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G40" t="n">
-        <v>110.3018381127067</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>831.5726843696448</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M40" t="n">
-        <v>962.1770767081742</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N40" t="n">
-        <v>1120.185357954412</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2252.808511274623</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2252.808511274623</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>2252.808511274623</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774551</v>
+        <v>1965.853003145054</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X40" t="n">
-        <v>890.893515694255</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y40" t="n">
-        <v>814.4635074176776</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.556325916848</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>1889.485634438362</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V41" t="n">
-        <v>1526.868684372189</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W41" t="n">
-        <v>1122.013229783222</v>
+        <v>1561.872828231164</v>
       </c>
       <c r="X41" t="n">
-        <v>854.9953665698242</v>
+        <v>1142.730364810475</v>
       </c>
       <c r="Y41" t="n">
-        <v>446.7092428694776</v>
+        <v>1142.730364810475</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906844</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965029</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345754</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810424</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.6552262893761</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C43" t="n">
-        <v>471.6552262893761</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D43" t="n">
-        <v>305.7772334908988</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="E43" t="n">
-        <v>179.5506121696388</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="F43" t="n">
-        <v>179.5506121696388</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>112.9008800824081</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>413.3628026016838</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M43" t="n">
-        <v>997.5438780199984</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N43" t="n">
-        <v>1567.301592981533</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O43" t="n">
-        <v>2104.736723555076</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X43" t="n">
-        <v>890.893515694255</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083632</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1997.710627381563</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>1744.26120212753</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>1308.351417301975</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W44" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X44" t="n">
-        <v>1997.710627381563</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y44" t="n">
-        <v>1997.710627381563</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="45">
@@ -7706,37 +7706,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668988</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987884</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>858.3289888817344</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C46" t="n">
-        <v>753.852136908379</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D46" t="n">
         <v>753.852136908379</v>
@@ -7803,7 +7803,7 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
@@ -7815,43 +7815,43 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1539.854607180194</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>2360.327577447736</v>
+        <v>2043.877393424667</v>
       </c>
       <c r="U46" t="n">
-        <v>2081.940945496479</v>
+        <v>2043.877393424667</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.985437366909</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="W46" t="n">
-        <v>1522.959032953201</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.567278286613</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y46" t="n">
-        <v>1050.147607600722</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
   </sheetData>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>32.63681545384304</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>46.44901925258998</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>66.35787900959539</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>106.4970253946643</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,16 +8613,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>99.33766198190352</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>23.79830522054544</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>92.44192588442557</v>
+        <v>92.4419258844263</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>18.28387946838427</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>104.8520877340663</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,13 +8853,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371569</v>
+        <v>177.1920849464589</v>
       </c>
       <c r="N13" t="n">
-        <v>141.4680432173443</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9093,13 +9093,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464593</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>177.1920849464593</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042868</v>
+        <v>80.0089772241123</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>156.7304232042866</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9813,10 +9813,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>80.00897722411219</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>175.7179764032071</v>
       </c>
       <c r="O28" t="n">
-        <v>158.2045317475395</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>141.4680432173438</v>
+        <v>10.62967161639949</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>177.1920849464593</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>156.7304232042866</v>
+        <v>80.00897722411275</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,19 +10983,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N40" t="n">
-        <v>30.81754489126135</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P43" t="n">
-        <v>69.27619576520561</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11463,19 +11463,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>177.1920849464593</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>347.0837767286137</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>411.7841250286183</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>59.08462301753167</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>99.00273129753998</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.7937310717010391</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>382.385244856594</v>
       </c>
       <c r="G14" t="n">
-        <v>382.3718828012395</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23548,22 +23548,22 @@
         <v>40.06170608735101</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>60.78712941687002</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>56.59250992092879</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>62.83167813846529</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>254.5875093574913</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
@@ -23794,13 +23794,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>117.3283302718154</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>99.00273129754089</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>57.92552441760188</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>254.5875093574908</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>9.765080899626639</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>156.0966473163361</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>215.5074005610406</v>
       </c>
       <c r="H23" t="n">
-        <v>80.14076897706417</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
@@ -24265,13 +24265,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>89.7911027769446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>257.8515264887142</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>371.5884598230991</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>32.69036139576917</v>
       </c>
     </row>
     <row r="27">
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6.497492674413451</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.67563394407034</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>73.57058162433628</v>
       </c>
       <c r="H29" t="n">
-        <v>31.13960897283146</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -24742,13 +24742,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>8.147719077365338</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>69.52134278359705</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>340.5949175658645</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>37.0536977825307</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>73.92833470388993</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>80.49110833120139</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>409.5364763264382</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>119.2169052419339</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>109.9025982497434</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>13.96991611996452</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>30.18501798874797</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>197.0667638721448</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>36.53839759942545</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>149.4797657852212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>219.0427239871113</v>
       </c>
       <c r="X41" t="n">
-        <v>150.6033542052184</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>43.0960686037228</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>65.98323476635846</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>182.8461170869189</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -25924,13 +25924,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679806</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>67.40401094798543</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>69.52134278359617</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>382127.6864733427</v>
+        <v>382127.6864733426</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>382127.6864733426</v>
+        <v>382127.6864733427</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>382127.6864733425</v>
+        <v>382127.6864733426</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>382127.6864733426</v>
+        <v>382127.6864733427</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>382127.6864733425</v>
+        <v>382127.6864733427</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>382127.6864733426</v>
+        <v>382127.6864733427</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>382127.6864733426</v>
+        <v>382127.6864733428</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>382127.6864733426</v>
+        <v>382127.6864733427</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>382127.6864733426</v>
+        <v>382127.6864733427</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300946.1639116303</v>
+        <v>300946.1639116302</v>
       </c>
       <c r="C2" t="n">
         <v>300946.1639116302</v>
       </c>
       <c r="D2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369847</v>
       </c>
       <c r="E2" t="n">
+        <v>180892.2069959399</v>
+      </c>
+      <c r="F2" t="n">
         <v>180892.20699594</v>
-      </c>
-      <c r="F2" t="n">
-        <v>180892.2069959399</v>
       </c>
       <c r="G2" t="n">
         <v>180892.2069959399</v>
@@ -26343,19 +26343,19 @@
         <v>180892.2069959399</v>
       </c>
       <c r="L2" t="n">
-        <v>180892.2069959399</v>
+        <v>180892.20699594</v>
       </c>
       <c r="M2" t="n">
         <v>180892.2069959399</v>
       </c>
       <c r="N2" t="n">
-        <v>180892.2069959399</v>
+        <v>180892.20699594</v>
       </c>
       <c r="O2" t="n">
-        <v>180892.2069959399</v>
+        <v>180892.20699594</v>
       </c>
       <c r="P2" t="n">
-        <v>180892.2069959399</v>
+        <v>180892.20699594</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730579</v>
+        <v>117708.4675730588</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180441</v>
+        <v>439858.2450180431</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310199</v>
+        <v>30139.06600310226</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.581559748</v>
+        <v>117374.5815597477</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>271124.4451493586</v>
+        <v>271124.4451493583</v>
       </c>
       <c r="E4" t="n">
         <v>12946.1632919156</v>
@@ -26432,34 +26432,34 @@
         <v>12946.16329191561</v>
       </c>
       <c r="G4" t="n">
+        <v>12946.16329191561</v>
+      </c>
+      <c r="H4" t="n">
         <v>12946.16329191559</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12946.1632919156</v>
       </c>
       <c r="I4" t="n">
         <v>12946.16329191559</v>
       </c>
       <c r="J4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
       <c r="K4" t="n">
         <v>12946.16329191559</v>
       </c>
       <c r="L4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
       <c r="M4" t="n">
         <v>12946.16329191559</v>
       </c>
       <c r="N4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
       <c r="O4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
       <c r="P4" t="n">
-        <v>12946.16329191561</v>
+        <v>12946.1632919156</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239237</v>
+        <v>42922.56227239244</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="F5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="G5" t="n">
         <v>46051.0812096378</v>
-      </c>
-      <c r="G5" t="n">
-        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963781</v>
@@ -26493,25 +26493,25 @@
         <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31412.15240020253</v>
+        <v>-31444.0591177042</v>
       </c>
       <c r="C6" t="n">
-        <v>-31412.15240020264</v>
+        <v>-31444.0591177042</v>
       </c>
       <c r="D6" t="n">
-        <v>-123470.7660578241</v>
+        <v>-123470.7660578249</v>
       </c>
       <c r="E6" t="n">
-        <v>-317963.2825236576</v>
+        <v>-318517.1629668786</v>
       </c>
       <c r="F6" t="n">
-        <v>121894.9624943865</v>
+        <v>121341.0820511646</v>
       </c>
       <c r="G6" t="n">
-        <v>121894.9624943865</v>
+        <v>121341.0820511646</v>
       </c>
       <c r="H6" t="n">
-        <v>121894.9624943865</v>
+        <v>121341.0820511645</v>
       </c>
       <c r="I6" t="n">
-        <v>121894.9624943865</v>
+        <v>121341.0820511646</v>
       </c>
       <c r="J6" t="n">
-        <v>121894.9624943865</v>
+        <v>121341.0820511646</v>
       </c>
       <c r="K6" t="n">
-        <v>121894.9624943865</v>
+        <v>121341.0820511645</v>
       </c>
       <c r="L6" t="n">
-        <v>91755.89649128451</v>
+        <v>91202.01604806239</v>
       </c>
       <c r="M6" t="n">
-        <v>4520.380934638466</v>
+        <v>3966.500491416874</v>
       </c>
       <c r="N6" t="n">
-        <v>121894.9624943865</v>
+        <v>121341.0820511646</v>
       </c>
       <c r="O6" t="n">
-        <v>121894.9624943865</v>
+        <v>121341.0820511646</v>
       </c>
       <c r="P6" t="n">
-        <v>121894.9624943865</v>
+        <v>121341.0820511646</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480479</v>
+        <v>94.25048217480553</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="F3" t="n">
         <v>466.701928093221</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.701928093221</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26795,43 +26795,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="F4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
         <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
         <v>590.081894361934</v>
       </c>
       <c r="J4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="K4" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="K4" t="n">
-        <v>590.081894361934</v>
-      </c>
       <c r="L4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480479</v>
+        <v>94.25048217480553</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184164</v>
+        <v>372.4514459184155</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194733</v>
+        <v>470.997983819472</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.083910542461</v>
+        <v>119.083910542462</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194733</v>
+        <v>470.9979838194719</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194733</v>
+        <v>470.997983819472</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>335.5553448355065</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
-        <v>163.274569602131</v>
+        <v>282.3584801445919</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796773</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.2079358176206</v>
+        <v>106.8606232286311</v>
       </c>
       <c r="U8" t="n">
         <v>256.599767943293</v>
@@ -27915,7 +27915,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>281.7229895006161</v>
+        <v>281.7229895006151</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.006951526504551</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5027881459245407</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
@@ -27949,7 +27949,7 @@
         <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809191</v>
+        <v>39.36037526809189</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656963</v>
+        <v>59.05530966656961</v>
       </c>
       <c r="T9" t="n">
-        <v>8.975812792897713</v>
+        <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
         <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>78.04243221615873</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>64.38561618167601</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>34.23485086104689</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.137010886110446</v>
+        <v>20.33181302277104</v>
       </c>
     </row>
     <row r="10">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70.81652198933627</v>
+        <v>70.81652198933533</v>
       </c>
       <c r="C10" t="n">
-        <v>51.75218385914634</v>
+        <v>51.7521838591454</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>76.73294388213371</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -28028,10 +28028,10 @@
         <v>163.7654023385416</v>
       </c>
       <c r="H10" t="n">
-        <v>17.90814412952794</v>
+        <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>82.66219243742786</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616406</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
@@ -28070,7 +28070,7 @@
         <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>165.0020425058119</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -28079,7 +28079,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.9185580106611</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529838</v>
+        <v>0.3788964107529867</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623996</v>
+        <v>3.880372866624027</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555442</v>
+        <v>14.60740387555454</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214608</v>
+        <v>32.15835924214634</v>
       </c>
       <c r="K8" t="n">
-        <v>48.1970443093199</v>
+        <v>48.19704430932028</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990154</v>
+        <v>59.79269533990201</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462992</v>
+        <v>66.53089438463043</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168183</v>
+        <v>67.60743381168237</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725685</v>
+        <v>63.83978262725735</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679255</v>
+        <v>54.48577748679298</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670131</v>
+        <v>40.91654977670163</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196214</v>
+        <v>23.80085166196233</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033627</v>
+        <v>8.634101960033695</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071187</v>
+        <v>1.6586190380712</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0303117128602387</v>
+        <v>0.03031171286023893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250518</v>
+        <v>0.2027274522250534</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857738</v>
+        <v>1.957920393857753</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888846</v>
+        <v>6.979870613888901</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780632</v>
+        <v>19.15329845780647</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688479</v>
+        <v>32.73603775688505</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211049</v>
+        <v>44.01764264211083</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852686</v>
+        <v>51.366512785269</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286556</v>
+        <v>52.72603153286597</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619467</v>
+        <v>48.23401798619505</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006275</v>
+        <v>38.71205182006305</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542942</v>
+        <v>25.87798144542963</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779752</v>
+        <v>12.58688514779762</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531114</v>
+        <v>3.765573509531143</v>
       </c>
       <c r="T9" t="n">
-        <v>0.817133897345713</v>
+        <v>0.8171338973457193</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0133373323832271</v>
+        <v>0.0133373323832272</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889922</v>
+        <v>0.1699598858889936</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540314</v>
+        <v>1.511097894540326</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643513</v>
+        <v>5.111157295643554</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235175</v>
+        <v>12.01616393235184</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055745</v>
+        <v>19.74624856055761</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207799</v>
+        <v>25.26839976207819</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803539</v>
+        <v>26.6419846580356</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063098</v>
+        <v>26.00849781063119</v>
       </c>
       <c r="O10" t="n">
-        <v>24.0230573254732</v>
+        <v>24.02305732547339</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333774</v>
+        <v>20.5558756533379</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839552</v>
+        <v>14.23182280839563</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517776</v>
+        <v>7.642014505517835</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083618</v>
+        <v>2.961937284083641</v>
       </c>
       <c r="T10" t="n">
-        <v>0.726192239707512</v>
+        <v>0.7261922397075177</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308678</v>
+        <v>0.009270539230308751</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062837</v>
@@ -32253,7 +32253,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q17" t="n">
         <v>202.607267687947</v>
@@ -32262,10 +32262,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U17" t="n">
         <v>0.150095092452091</v>
@@ -32308,19 +32308,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108054</v>
@@ -32335,7 +32335,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -32344,7 +32344,7 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356904</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32879,28 +32879,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33353,28 +33353,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916787</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642302</v>
+        <v>14.19478239642314</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214608</v>
+        <v>32.15835924214634</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931989</v>
+        <v>48.19704430932028</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990154</v>
+        <v>59.79269533990201</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462993</v>
+        <v>66.53089438463041</v>
       </c>
       <c r="N8" t="n">
-        <v>67.6074338116818</v>
+        <v>67.60743381168237</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725691</v>
+        <v>63.83978262725736</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679253</v>
+        <v>54.48577748679298</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670129</v>
+        <v>40.91654977670163</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196216</v>
+        <v>23.80085166196233</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>33.30681320020966</v>
+        <v>6.979870613888899</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780632</v>
+        <v>51.79011391164951</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688479</v>
+        <v>32.73603775688505</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211047</v>
+        <v>44.01764264211083</v>
       </c>
       <c r="M9" t="n">
-        <v>97.81553203785859</v>
+        <v>51.36651278526901</v>
       </c>
       <c r="N9" t="n">
-        <v>119.083910542461</v>
+        <v>52.72603153286599</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619466</v>
+        <v>48.23401798619506</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006275</v>
+        <v>38.71205182006304</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542944</v>
+        <v>25.87798144542961</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779755</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143241</v>
+        <v>99.47039137143253</v>
       </c>
       <c r="K10" t="n">
-        <v>119.083910542461</v>
+        <v>19.7462485605576</v>
       </c>
       <c r="L10" t="n">
-        <v>49.06670498262343</v>
+        <v>25.26839976207819</v>
       </c>
       <c r="M10" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063096</v>
+        <v>44.29237727901545</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547319</v>
+        <v>24.02305732547342</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333775</v>
+        <v>20.55587565333792</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839552</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35433,7 +35433,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233713</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,13 +35573,13 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>309.115713571236</v>
       </c>
       <c r="N13" t="n">
-        <v>270.2548228172327</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048098</v>
@@ -35588,10 +35588,10 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816031</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916864</v>
+        <v>34.56235976916863</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562335</v>
@@ -35813,13 +35813,13 @@
         <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712365</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
@@ -35883,22 +35883,22 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994719</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184536</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562353</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K18" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>309.1157135712365</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36135,10 +36135,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>281.8524450409514</v>
+        <v>205.1309990607768</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36375,13 +36375,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>281.8524450409511</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>181.7959026561157</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -36600,7 +36600,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916793</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562314</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36691,7 +36691,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>304.5047560030955</v>
       </c>
       <c r="O28" t="n">
-        <v>277.1599674523493</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
         <v>117.855135640546</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36934,7 +36934,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>270.2548228172323</v>
+        <v>139.4164512162879</v>
       </c>
       <c r="O31" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,19 +37065,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37086,13 +37086,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K34" t="n">
         <v>375.3116718572664</v>
@@ -37235,7 +37235,7 @@
         <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>309.1157135712365</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998884</v>
@@ -37250,7 +37250,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
         <v>269.7982739184536</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>281.8524450409511</v>
+        <v>205.1309990607773</v>
       </c>
       <c r="M37" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
         <v>296.0766412766673</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916792</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562325</v>
       </c>
       <c r="K39" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N40" t="n">
-        <v>159.6043244911498</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P40" t="n">
         <v>452.8039900485103</v>
@@ -37724,7 +37724,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -37785,22 +37785,22 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
         <v>117.855135640546</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37873,16 +37873,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P43" t="n">
-        <v>171.0631211972091</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.8417569156242</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
@@ -38183,22 +38183,22 @@
         <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>309.1157135712365</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048098</v>
+        <v>466.0392124334235</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
